--- a/RatingUniversity/Files/23_summi_mejdunarodnih_grantov.xlsx
+++ b/RatingUniversity/Files/23_summi_mejdunarodnih_grantov.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilechka\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\Raiting\RatingUniversity\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,13 +16,13 @@
   </sheets>
   <definedNames>
     <definedName name="buyurtma">summi_mejdunarodnih_grantov!$D$8</definedName>
-    <definedName name="buyurtma_name">summi_mejdunarodnih_grantov!$D$9</definedName>
-    <definedName name="buyurtma_summa">summi_mejdunarodnih_grantov!$E$9</definedName>
+    <definedName name="buyurtma_name">summi_mejdunarodnih_grantov!$D$10</definedName>
+    <definedName name="buyurtma_summa">summi_mejdunarodnih_grantov!$E$10</definedName>
     <definedName name="grant">summi_mejdunarodnih_grantov!$B$8</definedName>
-    <definedName name="grant_summa">summi_mejdunarodnih_grantov!$C$9</definedName>
+    <definedName name="grant_summa">summi_mejdunarodnih_grantov!$C$10</definedName>
     <definedName name="id">summi_mejdunarodnih_grantov!$A$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -226,11 +226,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,40 +261,46 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -375,6 +396,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -410,6 +448,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -562,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,159 +636,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="20">
+        <v>1</v>
+      </c>
+      <c r="B9" s="20">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <f>C10+E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="10"/>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F12" si="0">C11+E11</f>
+        <f>C11+E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F13" si="0">C12+E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
-        <f>SUM(C10:C12)</f>
+      <c r="C14" s="3">
+        <f>SUM(C11:C13)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3">
-        <f>SUM(E10:E12)</f>
+      <c r="E14" s="3">
+        <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <f>SUM(F10:F12)</f>
+      <c r="F14" s="3">
+        <f>SUM(F11:F13)</f>
         <v>0</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
     </row>

--- a/RatingUniversity/Files/23_summi_mejdunarodnih_grantov.xlsx
+++ b/RatingUniversity/Files/23_summi_mejdunarodnih_grantov.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\Raiting\RatingUniversity\Files\"/>
@@ -16,10 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="buyurtma">summi_mejdunarodnih_grantov!$D$8</definedName>
-    <definedName name="buyurtma_name">summi_mejdunarodnih_grantov!$D$10</definedName>
-    <definedName name="buyurtma_summa">summi_mejdunarodnih_grantov!$E$10</definedName>
+    <definedName name="buyurtma_name">summi_mejdunarodnih_grantov!$D$9</definedName>
+    <definedName name="buyurtma_summa">summi_mejdunarodnih_grantov!$E$9</definedName>
     <definedName name="grant">summi_mejdunarodnih_grantov!$B$8</definedName>
-    <definedName name="grant_summa">summi_mejdunarodnih_grantov!$C$10</definedName>
+    <definedName name="grant_summa">summi_mejdunarodnih_grantov!$C$9</definedName>
     <definedName name="id">summi_mejdunarodnih_grantov!$A$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>буюртмалари ҳисобидан 2014 йилда олинган маблағлар миқдори  бўйича</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>Жами</t>
   </si>
   <si>
     <t>№</t>
@@ -144,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -241,11 +238,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,9 +265,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,7 +272,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -282,12 +287,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,7 +299,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -617,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -636,115 +635,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E10" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F10" s="7">
         <v>6</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -758,7 +757,7 @@
         <f>C11+E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -772,7 +771,7 @@
         <f t="shared" ref="F12:F13" si="0">C12+E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -786,46 +785,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3">
-        <f>SUM(C11:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <f>SUM(E11:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <f>SUM(F11:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="10">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
